--- a/output_by_subject/MM311.xlsx
+++ b/output_by_subject/MM311.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1675,6 +1675,622 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1901MM01</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1901MM02</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1901MM03</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1901MM04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1901MM05</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1901MM06</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1901MM07</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1901MM09</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1901MM10</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1901MM11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1901MM13</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1901MM14</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1901MM15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1901MM18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1901MM20</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1901MM22</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1901MM23</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1901MM25</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1901MM26</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1901MM27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1901MM28</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1901MM30</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1901MM31</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1901MM32</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1901MM33</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1901MM35</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1901MM36</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1901MM37</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MM311</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
